--- a/database/divisas.xlsx
+++ b/database/divisas.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valen\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2860B59E-B97C-4217-A572-B721FC7CE4CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F2966D3-FB78-48C8-932B-534077811A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{182E7211-C622-4BFB-9C67-CCEB434980AD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{182E7211-C622-4BFB-9C67-CCEB434980AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="81">
   <si>
     <t>code</t>
   </si>
@@ -129,14 +140,152 @@
     <t>ZAR</t>
   </si>
   <si>
-    <t>valor_respecto_al_dolar</t>
+    <t>valor_respecto_al_euro</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>user_name</t>
+  </si>
+  <si>
+    <t>gabriela</t>
+  </si>
+  <si>
+    <t>gab123</t>
+  </si>
+  <si>
+    <t>gabriela@gmail.com</t>
+  </si>
+  <si>
+    <t>gaby123</t>
+  </si>
+  <si>
+    <t>laura</t>
+  </si>
+  <si>
+    <t>456laura</t>
+  </si>
+  <si>
+    <t>laura@gmail.com</t>
+  </si>
+  <si>
+    <t>lauraaa</t>
+  </si>
+  <si>
+    <t>yofer</t>
+  </si>
+  <si>
+    <t>yofer@gmail.com</t>
+  </si>
+  <si>
+    <t>valentina</t>
+  </si>
+  <si>
+    <t>valentina@gmail.com</t>
+  </si>
+  <si>
+    <t>mariana</t>
+  </si>
+  <si>
+    <t>mariihq</t>
+  </si>
+  <si>
+    <t>marihq</t>
+  </si>
+  <si>
+    <t>jose</t>
+  </si>
+  <si>
+    <t>josee1020</t>
+  </si>
+  <si>
+    <t>jose@gmail.com</t>
+  </si>
+  <si>
+    <t>jose_j</t>
+  </si>
+  <si>
+    <t>sergio</t>
+  </si>
+  <si>
+    <t>checho</t>
+  </si>
+  <si>
+    <t>checho@gmail.com</t>
+  </si>
+  <si>
+    <t>checho23</t>
+  </si>
+  <si>
+    <t>juan</t>
+  </si>
+  <si>
+    <t>juan_jo</t>
+  </si>
+  <si>
+    <t>juan@gmail.com</t>
+  </si>
+  <si>
+    <t>juann</t>
+  </si>
+  <si>
+    <t>alejandro</t>
+  </si>
+  <si>
+    <t>alejandro@gmail.com</t>
+  </si>
+  <si>
+    <t>alejandr0</t>
+  </si>
+  <si>
+    <t>mariana@gmail.com</t>
+  </si>
+  <si>
+    <t>dolar australiano</t>
+  </si>
+  <si>
+    <t>leva bulgara</t>
+  </si>
+  <si>
+    <t>real brasileño</t>
+  </si>
+  <si>
+    <t>dolar canadiense</t>
+  </si>
+  <si>
+    <t>franco suizo</t>
+  </si>
+  <si>
+    <t>yuan</t>
+  </si>
+  <si>
+    <t>corona checa</t>
+  </si>
+  <si>
+    <t>corona danesa</t>
+  </si>
+  <si>
+    <t>libra esterlina</t>
+  </si>
+  <si>
+    <t>dolar hongkones</t>
+  </si>
+  <si>
+    <t>kuna croata</t>
+  </si>
+  <si>
+    <t>forinto hungaro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +296,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -169,15 +326,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{40D0A940-4C62-45BC-9A3A-6898ED806625}"/>
   </cellStyles>
@@ -494,15 +657,15 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -516,9 +679,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
       </c>
       <c r="C2" s="1">
         <v>1.5036</v>
@@ -528,9 +694,12 @@
         <v>0.66507049747273206</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
       </c>
       <c r="C3" s="1">
         <v>1.9558</v>
@@ -540,10 +709,13 @@
         <v>0.51129972389814915</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
       <c r="C4" s="1">
         <v>5.2093999999999996</v>
       </c>
@@ -552,10 +724,13 @@
         <v>0.19196068645141476</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B5" t="s">
+        <v>72</v>
+      </c>
       <c r="C5" s="1">
         <v>1.349</v>
       </c>
@@ -564,10 +739,13 @@
         <v>0.7412898443291327</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B6" t="s">
+        <v>73</v>
+      </c>
       <c r="C6" s="1">
         <v>1.0265</v>
       </c>
@@ -576,10 +754,13 @@
         <v>0.97418412079883099</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B7" t="s">
+        <v>74</v>
+      </c>
       <c r="C7" s="1">
         <v>7.1028000000000002</v>
       </c>
@@ -588,10 +769,13 @@
         <v>0.14078954778397251</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
       <c r="C8" s="1">
         <v>24.7</v>
       </c>
@@ -600,10 +784,13 @@
         <v>4.048582995951417E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B9" t="s">
+        <v>76</v>
+      </c>
       <c r="C9" s="1">
         <v>7.4423000000000004</v>
       </c>
@@ -612,10 +799,13 @@
         <v>0.13436706394528572</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B10" t="s">
+        <v>77</v>
+      </c>
       <c r="C10" s="1">
         <v>0.84728000000000003</v>
       </c>
@@ -624,10 +814,13 @@
         <v>1.1802473798508166</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B11" t="s">
+        <v>78</v>
+      </c>
       <c r="C11" s="1">
         <v>8.2593999999999994</v>
       </c>
@@ -636,10 +829,13 @@
         <v>0.12107417003656441</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B12" t="s">
+        <v>79</v>
+      </c>
       <c r="C12" s="1">
         <v>7.5395000000000003</v>
       </c>
@@ -648,10 +844,13 @@
         <v>0.13263479010544466</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B13" t="s">
+        <v>80</v>
+      </c>
       <c r="C13" s="1">
         <v>385.83</v>
       </c>
@@ -660,7 +859,7 @@
         <v>2.5918150480781694E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -672,7 +871,7 @@
         <v>6.4863462411623537E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -684,7 +883,7 @@
         <v>0.28071751396569633</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -696,7 +895,7 @@
         <v>1.2238404112103782E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -708,7 +907,7 @@
         <v>7.1684587813620072E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -720,7 +919,7 @@
         <v>7.4371560315335409E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -732,7 +931,7 @@
         <v>7.4448522569069619E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -744,7 +943,7 @@
         <v>4.7609979051609214E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
@@ -756,7 +955,7 @@
         <v>0.21568923495028361</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
@@ -768,7 +967,7 @@
         <v>9.6991328975189611E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
@@ -780,7 +979,7 @@
         <v>0.60419310011479666</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
@@ -792,7 +991,7 @@
         <v>1.8135654697134566E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
@@ -804,7 +1003,7 @@
         <v>0.21541046464037225</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
@@ -816,7 +1015,7 @@
         <v>0.20212636940615272</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
@@ -828,7 +1027,7 @@
         <v>9.514928923480942E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
@@ -840,7 +1039,7 @@
         <v>0.686059275521405</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
@@ -852,7 +1051,7 @@
         <v>2.7515615111575818E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
@@ -864,7 +1063,7 @@
         <v>5.9510702999934544E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
@@ -876,7 +1075,7 @@
         <v>0.95011876484560576</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>33</v>
       </c>
@@ -891,4 +1090,173 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74630975-48B8-4EF6-B538-777BCA189A3D}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="21.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="3">
+        <v>12345</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="3">
+        <v>56789</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{65AA3F46-3D4A-4ECC-9407-F203D77B57F0}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{1EA99CCE-DFCB-4056-9BC2-1D93ED79941A}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{B77F1DF1-C53F-465A-B9AA-BC3F8FA62DA1}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{D0D93AE0-640B-40E0-BDAE-064467438955}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{A30B8193-2C7A-4360-AE09-5B3B59F4FC2E}"/>
+    <hyperlink ref="C8" r:id="rId6" xr:uid="{EFB23DF5-1224-4246-B218-5C2ADB257CAC}"/>
+    <hyperlink ref="C9" r:id="rId7" xr:uid="{754DFE9A-FA78-48CB-9A0A-DBCD36A23055}"/>
+    <hyperlink ref="C10" r:id="rId8" xr:uid="{8E819FBA-4E43-409D-ABC4-CE6B340F64DC}"/>
+    <hyperlink ref="C6" r:id="rId9" xr:uid="{81239C78-F938-4CE7-A84D-E214765B248B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>